--- a/data/visual.xlsx
+++ b/data/visual.xlsx
@@ -1,23 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevin/Desktop/MM1/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevin/Documents/Repos/Event-Queue-Sim/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{B02970AD-EA1D-E649-8129-3173DA1818A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8418C3A-E9A9-6346-9953-EDF9DC329768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
     <sheet name="Experiment 1" sheetId="2" r:id="rId2"/>
     <sheet name="Experiment 2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -54,7 +65,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -724,34 +735,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.24957799999999999</c:v>
+                  <c:v>0.202208</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.61437699999999995</c:v>
+                  <c:v>0.41510999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.06592</c:v>
+                  <c:v>0.64251999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.56033</c:v>
+                  <c:v>0.88312999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.0067029999999999</c:v>
+                  <c:v>1.1274500000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.35859</c:v>
+                  <c:v>1.38035</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.6437409999999999</c:v>
+                  <c:v>1.617097</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.8574890000000002</c:v>
+                  <c:v>1.8475060000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.0329980000000001</c:v>
+                  <c:v>2.0413100000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.1542669999999999</c:v>
+                  <c:v>2.2238980000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1082,34 +1093,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.41600599999999999</c:v>
+                  <c:v>0.33701300000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.51864699999999997</c:v>
+                  <c:v>0.34592499999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.63060700000000003</c:v>
+                  <c:v>0.35695500000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.74082599999999998</c:v>
+                  <c:v>0.36797099999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.83559600000000001</c:v>
+                  <c:v>0.37581700000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.90767799999999998</c:v>
+                  <c:v>0.38342999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.97074800000000006</c:v>
+                  <c:v>0.385023</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.015541</c:v>
+                  <c:v>0.38489699999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0559810000000001</c:v>
+                  <c:v>0.37802000000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.086166</c:v>
+                  <c:v>0.37064999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1440,34 +1451,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.518E-3</c:v>
+                  <c:v>1.95E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.5306999999999999E-2</c:v>
+                  <c:v>2.2899999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.6056000000000002E-2</c:v>
+                  <c:v>8.5120000000000005E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.12174699999999999</c:v>
+                  <c:v>2.2682999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.20233699999999999</c:v>
+                  <c:v>4.3473999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.27804000000000001</c:v>
+                  <c:v>7.1676000000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.35113699999999998</c:v>
+                  <c:v>0.105249</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.41328399999999998</c:v>
+                  <c:v>0.14380899999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.46891899999999997</c:v>
+                  <c:v>0.18135200000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.51507199999999997</c:v>
+                  <c:v>0.22117999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1815,34 +1826,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.81913100000000005</c:v>
+                  <c:v>0.699685</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.157953</c:v>
+                  <c:v>0.84943800000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.53512</c:v>
+                  <c:v>1.020529</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.9124490000000001</c:v>
+                  <c:v>1.2144410000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.2655949999999998</c:v>
+                  <c:v>1.4027700000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.5454310000000002</c:v>
+                  <c:v>1.6133869999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.768405</c:v>
+                  <c:v>1.8074269999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.9485519999999998</c:v>
+                  <c:v>1.9909429999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.0849500000000001</c:v>
+                  <c:v>2.1607259999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.2064810000000001</c:v>
+                  <c:v>2.321466</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1928,34 +1939,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.163659</c:v>
+                  <c:v>1.483717</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.4372729999999998</c:v>
+                  <c:v>1.666526</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.6512349999999998</c:v>
+                  <c:v>1.851202</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.8376000000000001</c:v>
+                  <c:v>2.0263070000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.985141</c:v>
+                  <c:v>2.1939929999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.1101139999999998</c:v>
+                  <c:v>2.3382839999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.2086420000000002</c:v>
+                  <c:v>2.468709</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.2952979999999998</c:v>
+                  <c:v>2.5750660000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.3625850000000002</c:v>
+                  <c:v>2.6960069999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.4187430000000001</c:v>
+                  <c:v>2.7919610000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2334,34 +2345,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.41539700000000002</c:v>
+                  <c:v>0.15210499999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.52231300000000003</c:v>
+                  <c:v>0.163353</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.63177799999999995</c:v>
+                  <c:v>0.175953</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.73765899999999995</c:v>
+                  <c:v>0.18975600000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.83698300000000003</c:v>
+                  <c:v>0.20039599999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.91247</c:v>
+                  <c:v>0.212288</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.97153999999999996</c:v>
+                  <c:v>0.220418</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.020667</c:v>
+                  <c:v>0.226244</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0535190000000001</c:v>
+                  <c:v>0.22986400000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0915600000000001</c:v>
+                  <c:v>0.23214699999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2447,34 +2458,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.80950900000000003</c:v>
+                  <c:v>0.32254699999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.88053499999999996</c:v>
+                  <c:v>0.32048599999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.93467999999999996</c:v>
+                  <c:v>0.31917299999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.98163</c:v>
+                  <c:v>0.31661</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0243469999999999</c:v>
+                  <c:v>0.31342799999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.060773</c:v>
+                  <c:v>0.30766900000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.08578</c:v>
+                  <c:v>0.301062</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.1114660000000001</c:v>
+                  <c:v>0.29262100000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.1322760000000001</c:v>
+                  <c:v>0.28680899999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.1489849999999999</c:v>
+                  <c:v>0.279196</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2853,34 +2864,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.571851</c:v>
+                  <c:v>0.549037</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.57487999999999995</c:v>
+                  <c:v>0.52639499999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.58171499999999998</c:v>
+                  <c:v>0.50905999999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.59426199999999996</c:v>
+                  <c:v>0.496195</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.61378999999999995</c:v>
+                  <c:v>0.48856300000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.63292999999999999</c:v>
+                  <c:v>0.48496600000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.65230500000000002</c:v>
+                  <c:v>0.48596600000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.67184699999999997</c:v>
+                  <c:v>0.49260599999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.68851200000000001</c:v>
+                  <c:v>0.50047799999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.70611800000000002</c:v>
+                  <c:v>0.51004300000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2966,34 +2977,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.41874099999999997</c:v>
+                  <c:v>0.18621599999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.46902500000000003</c:v>
+                  <c:v>0.21666099999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.50948599999999999</c:v>
+                  <c:v>0.24939900000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.54866000000000004</c:v>
+                  <c:v>0.28172399999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.58345199999999997</c:v>
+                  <c:v>0.31649899999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.61431000000000002</c:v>
+                  <c:v>0.34735500000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.63978800000000002</c:v>
+                  <c:v>0.37642500000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.66371400000000003</c:v>
+                  <c:v>0.40232099999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.68393499999999996</c:v>
+                  <c:v>0.43005300000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.70197299999999996</c:v>
+                  <c:v>0.45704899999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7093,11 +7104,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7139,19 +7150,19 @@
         <v>0.1</v>
       </c>
       <c r="B3">
-        <v>0.24957799999999999</v>
+        <v>0.202208</v>
       </c>
       <c r="C3">
-        <v>0.41600599999999999</v>
+        <v>0.33701300000000001</v>
       </c>
       <c r="D3">
-        <v>1.518E-3</v>
+        <v>1.95E-4</v>
       </c>
       <c r="E3">
         <v>200001</v>
       </c>
       <c r="F3">
-        <v>304</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -7159,19 +7170,19 @@
         <v>0.2</v>
       </c>
       <c r="B4">
-        <v>0.61437699999999995</v>
+        <v>0.41510999999999998</v>
       </c>
       <c r="C4">
-        <v>0.51864699999999997</v>
+        <v>0.34592499999999998</v>
       </c>
       <c r="D4">
-        <v>1.5306999999999999E-2</v>
+        <v>2.2899999999999999E-3</v>
       </c>
       <c r="E4">
         <v>200001</v>
       </c>
       <c r="F4">
-        <v>3109</v>
+        <v>459</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -7179,19 +7190,19 @@
         <v>0.3</v>
       </c>
       <c r="B5">
-        <v>1.06592</v>
+        <v>0.64251999999999998</v>
       </c>
       <c r="C5">
-        <v>0.63060700000000003</v>
+        <v>0.35695500000000002</v>
       </c>
       <c r="D5">
-        <v>5.6056000000000002E-2</v>
+        <v>8.5120000000000005E-3</v>
       </c>
       <c r="E5">
         <v>200001</v>
       </c>
       <c r="F5">
-        <v>11877</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -7199,19 +7210,19 @@
         <v>0.4</v>
       </c>
       <c r="B6">
-        <v>1.56033</v>
+        <v>0.88312999999999997</v>
       </c>
       <c r="C6">
-        <v>0.74082599999999998</v>
+        <v>0.36797099999999999</v>
       </c>
       <c r="D6">
-        <v>0.12174699999999999</v>
+        <v>2.2682999999999998E-2</v>
       </c>
       <c r="E6">
         <v>200001</v>
       </c>
       <c r="F6">
-        <v>27725</v>
+        <v>4642</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -7219,19 +7230,19 @@
         <v>0.5</v>
       </c>
       <c r="B7">
-        <v>2.0067029999999999</v>
+        <v>1.1274500000000001</v>
       </c>
       <c r="C7">
-        <v>0.83559600000000001</v>
+        <v>0.37581700000000001</v>
       </c>
       <c r="D7">
-        <v>0.20233699999999999</v>
+        <v>4.3473999999999999E-2</v>
       </c>
       <c r="E7">
         <v>200001</v>
       </c>
       <c r="F7">
-        <v>50733</v>
+        <v>9090</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -7239,19 +7250,19 @@
         <v>0.6</v>
       </c>
       <c r="B8">
-        <v>2.35859</v>
+        <v>1.38035</v>
       </c>
       <c r="C8">
-        <v>0.90767799999999998</v>
+        <v>0.38342999999999999</v>
       </c>
       <c r="D8">
-        <v>0.27804000000000001</v>
+        <v>7.1676000000000004E-2</v>
       </c>
       <c r="E8">
         <v>200001</v>
       </c>
       <c r="F8">
-        <v>77025</v>
+        <v>15442</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -7259,19 +7270,19 @@
         <v>0.7</v>
       </c>
       <c r="B9">
-        <v>2.6437409999999999</v>
+        <v>1.617097</v>
       </c>
       <c r="C9">
-        <v>0.97074800000000006</v>
+        <v>0.385023</v>
       </c>
       <c r="D9">
-        <v>0.35113699999999998</v>
+        <v>0.105249</v>
       </c>
       <c r="E9">
         <v>200001</v>
       </c>
       <c r="F9">
-        <v>108233</v>
+        <v>23526</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -7279,19 +7290,19 @@
         <v>0.8</v>
       </c>
       <c r="B10">
-        <v>2.8574890000000002</v>
+        <v>1.8475060000000001</v>
       </c>
       <c r="C10">
-        <v>1.015541</v>
+        <v>0.38489699999999999</v>
       </c>
       <c r="D10">
-        <v>0.41328399999999998</v>
+        <v>0.14380899999999999</v>
       </c>
       <c r="E10">
         <v>200001</v>
       </c>
       <c r="F10">
-        <v>140882</v>
+        <v>33593</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -7299,19 +7310,19 @@
         <v>0.9</v>
       </c>
       <c r="B11">
-        <v>3.0329980000000001</v>
+        <v>2.0413100000000002</v>
       </c>
       <c r="C11">
-        <v>1.0559810000000001</v>
+        <v>0.37802000000000002</v>
       </c>
       <c r="D11">
-        <v>0.46891899999999997</v>
+        <v>0.18135200000000001</v>
       </c>
       <c r="E11">
         <v>200001</v>
       </c>
       <c r="F11">
-        <v>176594</v>
+        <v>44306</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -7319,19 +7330,19 @@
         <v>1</v>
       </c>
       <c r="B12">
-        <v>3.1542669999999999</v>
+        <v>2.2238980000000002</v>
       </c>
       <c r="C12">
-        <v>1.086166</v>
+        <v>0.37064999999999998</v>
       </c>
       <c r="D12">
-        <v>0.51507199999999997</v>
+        <v>0.22117999999999999</v>
       </c>
       <c r="E12">
         <v>200001</v>
       </c>
       <c r="F12">
-        <v>212437</v>
+        <v>56799</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -7370,19 +7381,19 @@
         <v>1</v>
       </c>
       <c r="C17">
-        <v>0.81913100000000005</v>
+        <v>0.699685</v>
       </c>
       <c r="D17">
-        <v>0.41539700000000002</v>
+        <v>0.15210499999999999</v>
       </c>
       <c r="E17">
-        <v>0.571851</v>
+        <v>0.549037</v>
       </c>
       <c r="F17">
         <v>200001</v>
       </c>
       <c r="G17">
-        <v>267128</v>
+        <v>243497</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -7393,19 +7404,19 @@
         <v>1</v>
       </c>
       <c r="C18">
-        <v>1.157953</v>
+        <v>0.84943800000000003</v>
       </c>
       <c r="D18">
-        <v>0.52231300000000003</v>
+        <v>0.163353</v>
       </c>
       <c r="E18">
-        <v>0.57487999999999995</v>
+        <v>0.52639499999999995</v>
       </c>
       <c r="F18">
         <v>200001</v>
       </c>
       <c r="G18">
-        <v>270458</v>
+        <v>222294</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -7416,19 +7427,19 @@
         <v>1</v>
       </c>
       <c r="C19">
-        <v>1.53512</v>
+        <v>1.020529</v>
       </c>
       <c r="D19">
-        <v>0.63177799999999995</v>
+        <v>0.175953</v>
       </c>
       <c r="E19">
-        <v>0.58171499999999998</v>
+        <v>0.50905999999999996</v>
       </c>
       <c r="F19">
         <v>200001</v>
       </c>
       <c r="G19">
-        <v>278144</v>
+        <v>207383</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -7439,19 +7450,19 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <v>1.9124490000000001</v>
+        <v>1.2144410000000001</v>
       </c>
       <c r="D20">
-        <v>0.73765899999999995</v>
+        <v>0.18975600000000001</v>
       </c>
       <c r="E20">
-        <v>0.59426199999999996</v>
+        <v>0.496195</v>
       </c>
       <c r="F20">
         <v>200001</v>
       </c>
       <c r="G20">
-        <v>292930</v>
+        <v>196981</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -7462,19 +7473,19 @@
         <v>1</v>
       </c>
       <c r="C21">
-        <v>2.2655949999999998</v>
+        <v>1.4027700000000001</v>
       </c>
       <c r="D21">
-        <v>0.83698300000000003</v>
+        <v>0.20039599999999999</v>
       </c>
       <c r="E21">
-        <v>0.61378999999999995</v>
+        <v>0.48856300000000003</v>
       </c>
       <c r="F21">
         <v>200001</v>
       </c>
       <c r="G21">
-        <v>317859</v>
+        <v>191056</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -7485,19 +7496,19 @@
         <v>1</v>
       </c>
       <c r="C22">
-        <v>2.5454310000000002</v>
+        <v>1.6133869999999999</v>
       </c>
       <c r="D22">
-        <v>0.91247</v>
+        <v>0.212288</v>
       </c>
       <c r="E22">
-        <v>0.63292999999999999</v>
+        <v>0.48496600000000001</v>
       </c>
       <c r="F22">
         <v>200001</v>
       </c>
       <c r="G22">
-        <v>344861</v>
+        <v>188326</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -7508,19 +7519,19 @@
         <v>1</v>
       </c>
       <c r="C23">
-        <v>2.768405</v>
+        <v>1.8074269999999999</v>
       </c>
       <c r="D23">
-        <v>0.97153999999999996</v>
+        <v>0.220418</v>
       </c>
       <c r="E23">
-        <v>0.65230500000000002</v>
+        <v>0.48596600000000001</v>
       </c>
       <c r="F23">
         <v>200001</v>
       </c>
       <c r="G23">
-        <v>375225</v>
+        <v>189082</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -7531,19 +7542,19 @@
         <v>1</v>
       </c>
       <c r="C24">
-        <v>2.9485519999999998</v>
+        <v>1.9909429999999999</v>
       </c>
       <c r="D24">
-        <v>1.020667</v>
+        <v>0.226244</v>
       </c>
       <c r="E24">
-        <v>0.67184699999999997</v>
+        <v>0.49260599999999999</v>
       </c>
       <c r="F24">
         <v>200001</v>
       </c>
       <c r="G24">
-        <v>409480</v>
+        <v>194174</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -7554,19 +7565,19 @@
         <v>1</v>
       </c>
       <c r="C25">
-        <v>3.0849500000000001</v>
+        <v>2.1607259999999999</v>
       </c>
       <c r="D25">
-        <v>1.0535190000000001</v>
+        <v>0.22986400000000001</v>
       </c>
       <c r="E25">
-        <v>0.68851200000000001</v>
+        <v>0.50047799999999998</v>
       </c>
       <c r="F25">
         <v>200001</v>
       </c>
       <c r="G25">
-        <v>442089</v>
+        <v>200387</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -7577,19 +7588,19 @@
         <v>1</v>
       </c>
       <c r="C26">
-        <v>3.2064810000000001</v>
+        <v>2.321466</v>
       </c>
       <c r="D26">
-        <v>1.0915600000000001</v>
+        <v>0.23214699999999999</v>
       </c>
       <c r="E26">
-        <v>0.70611800000000002</v>
+        <v>0.51004300000000002</v>
       </c>
       <c r="F26">
         <v>200001</v>
       </c>
       <c r="G26">
-        <v>480554</v>
+        <v>208201</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -7623,19 +7634,19 @@
         <v>3</v>
       </c>
       <c r="C29">
-        <v>2.163659</v>
+        <v>1.483717</v>
       </c>
       <c r="D29">
-        <v>0.80950900000000003</v>
+        <v>0.32254699999999997</v>
       </c>
       <c r="E29">
-        <v>0.41874099999999997</v>
+        <v>0.18621599999999999</v>
       </c>
       <c r="F29">
         <v>200001</v>
       </c>
       <c r="G29">
-        <v>144082</v>
+        <v>45766</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -7646,19 +7657,19 @@
         <v>3</v>
       </c>
       <c r="C30">
-        <v>2.4372729999999998</v>
+        <v>1.666526</v>
       </c>
       <c r="D30">
-        <v>0.88053499999999996</v>
+        <v>0.32048599999999999</v>
       </c>
       <c r="E30">
-        <v>0.46902500000000003</v>
+        <v>0.21666099999999999</v>
       </c>
       <c r="F30">
         <v>200001</v>
       </c>
       <c r="G30">
-        <v>176667</v>
+        <v>55318</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -7669,19 +7680,19 @@
         <v>3</v>
       </c>
       <c r="C31">
-        <v>2.6512349999999998</v>
+        <v>1.851202</v>
       </c>
       <c r="D31">
-        <v>0.93467999999999996</v>
+        <v>0.31917299999999998</v>
       </c>
       <c r="E31">
-        <v>0.50948599999999999</v>
+        <v>0.24939900000000001</v>
       </c>
       <c r="F31">
         <v>200001</v>
       </c>
       <c r="G31">
-        <v>207740</v>
+        <v>66454</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
@@ -7692,19 +7703,19 @@
         <v>3</v>
       </c>
       <c r="C32">
-        <v>2.8376000000000001</v>
+        <v>2.0263070000000001</v>
       </c>
       <c r="D32">
-        <v>0.98163</v>
+        <v>0.31661</v>
       </c>
       <c r="E32">
-        <v>0.54866000000000004</v>
+        <v>0.28172399999999997</v>
       </c>
       <c r="F32">
         <v>200001</v>
       </c>
       <c r="G32">
-        <v>243126</v>
+        <v>78445</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -7715,19 +7726,19 @@
         <v>3</v>
       </c>
       <c r="C33">
-        <v>2.985141</v>
+        <v>2.1939929999999999</v>
       </c>
       <c r="D33">
-        <v>1.0243469999999999</v>
+        <v>0.31342799999999998</v>
       </c>
       <c r="E33">
-        <v>0.58345199999999997</v>
+        <v>0.31649899999999997</v>
       </c>
       <c r="F33">
         <v>200001</v>
       </c>
       <c r="G33">
-        <v>280140</v>
+        <v>92612</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -7738,19 +7749,19 @@
         <v>3</v>
       </c>
       <c r="C34">
-        <v>3.1101139999999998</v>
+        <v>2.3382839999999998</v>
       </c>
       <c r="D34">
-        <v>1.060773</v>
+        <v>0.30766900000000003</v>
       </c>
       <c r="E34">
-        <v>0.61431000000000002</v>
+        <v>0.34735500000000002</v>
       </c>
       <c r="F34">
         <v>200001</v>
       </c>
       <c r="G34">
-        <v>318554</v>
+        <v>106446</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -7761,19 +7772,19 @@
         <v>3</v>
       </c>
       <c r="C35">
-        <v>3.2086420000000002</v>
+        <v>2.468709</v>
       </c>
       <c r="D35">
-        <v>1.08578</v>
+        <v>0.301062</v>
       </c>
       <c r="E35">
-        <v>0.63978800000000002</v>
+        <v>0.37642500000000001</v>
       </c>
       <c r="F35">
         <v>200001</v>
       </c>
       <c r="G35">
-        <v>355236</v>
+        <v>120733</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
@@ -7784,19 +7795,19 @@
         <v>3</v>
       </c>
       <c r="C36">
-        <v>3.2952979999999998</v>
+        <v>2.5750660000000001</v>
       </c>
       <c r="D36">
-        <v>1.1114660000000001</v>
+        <v>0.29262100000000002</v>
       </c>
       <c r="E36">
-        <v>0.66371400000000003</v>
+        <v>0.40232099999999998</v>
       </c>
       <c r="F36">
         <v>200001</v>
       </c>
       <c r="G36">
-        <v>394737</v>
+        <v>134629</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
@@ -7807,19 +7818,19 @@
         <v>3</v>
       </c>
       <c r="C37">
-        <v>3.3625850000000002</v>
+        <v>2.6960069999999998</v>
       </c>
       <c r="D37">
-        <v>1.1322760000000001</v>
+        <v>0.28680899999999998</v>
       </c>
       <c r="E37">
-        <v>0.68393499999999996</v>
+        <v>0.43005300000000002</v>
       </c>
       <c r="F37">
         <v>200001</v>
       </c>
       <c r="G37">
-        <v>432790</v>
+        <v>150912</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
@@ -7830,19 +7841,19 @@
         <v>3</v>
       </c>
       <c r="C38">
-        <v>3.4187430000000001</v>
+        <v>2.7919610000000001</v>
       </c>
       <c r="D38">
-        <v>1.1489849999999999</v>
+        <v>0.279196</v>
       </c>
       <c r="E38">
-        <v>0.70197299999999996</v>
+        <v>0.45704899999999998</v>
       </c>
       <c r="F38">
         <v>200001</v>
       </c>
       <c r="G38">
-        <v>471089</v>
+        <v>168359</v>
       </c>
     </row>
   </sheetData>
@@ -7851,7 +7862,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7866,7 +7877,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
